--- a/cards/card_status/card_status.xlsx
+++ b/cards/card_status/card_status.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,470 +440,226 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>cst_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>cst_labe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cst_code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cst_labe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>160cca46-eac7-4a74-adb6-70d79ba5c70e</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>In Instance</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C2" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ccb2d125-c888-4ab1-b409-66396db208b3</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C3" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3b51ce48-92d6-4cc2-81c9-3bb38aeb3cef</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C4" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4a6cadba-7c7b-43c4-b4d8-79202aca021a</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C5" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1771a560-e4f7-4236-a676-9bc3bf5ca205</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C6" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>d6c73c51-daca-4145-aed0-c0ba09a9c6a1</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cancelled</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C7" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>69cd510c-b6d3-4f1e-bd13-7401bab3fdfd</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Replaced</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C8" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>c449afdf-100d-4ff3-a7c4-cbbbb4f091b4</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ready For Personalization</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C9" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>82c076eb-245c-4521-a5be-8bf4a75edae7</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Permanent Block</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C10" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>03706e9c-5e75-4550-b5f5-122ee88ff115</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">Wrong Pin Block </t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C11" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>de28f25d-f037-4720-b46c-78e000ff5b58</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Force Pin Change</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C12" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>cb8569a9-fce2-40ff-afd0-36b2f72ea490</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Do Not Honour</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C13" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>e833be5e-0d48-44f5-a97b-3ea7be9740ed</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Credit Debts</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C14" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>79481592-dbd4-4196-8a1a-a311b0c1666f</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Call Issuer</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C15" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>95ac4d57-ab03-4936-aea5-f776b48bea64</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Card Lost</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C16" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>69c9ee75-366b-491b-9db7-1dac2e2365f7</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Forceful Pin Change</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>45511.29450409365</v>
+      <c r="C17" s="2" t="n">
+        <v>45511.29450409722</v>
       </c>
     </row>
   </sheetData>

--- a/cards/card_status/card_status.xlsx
+++ b/cards/card_status/card_status.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,226 +440,470 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>cst_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cst_labe</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>160cca46-eac7-4a74-adb6-70d79ba5c70e</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>In Instance</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ccb2d125-c888-4ab1-b409-66396db208b3</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3b51ce48-92d6-4cc2-81c9-3bb38aeb3cef</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4a6cadba-7c7b-43c4-b4d8-79202aca021a</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1771a560-e4f7-4236-a676-9bc3bf5ca205</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>d6c73c51-daca-4145-aed0-c0ba09a9c6a1</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cancelled</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>69cd510c-b6d3-4f1e-bd13-7401bab3fdfd</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Replaced</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c449afdf-100d-4ff3-a7c4-cbbbb4f091b4</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Ready For Personalization</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>82c076eb-245c-4521-a5be-8bf4a75edae7</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Permanent Block</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03706e9c-5e75-4550-b5f5-122ee88ff115</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">Wrong Pin Block </t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>de28f25d-f037-4720-b46c-78e000ff5b58</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Force Pin Change</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cb8569a9-fce2-40ff-afd0-36b2f72ea490</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Do Not Honour</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>e833be5e-0d48-44f5-a97b-3ea7be9740ed</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Credit Debts</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>79481592-dbd4-4196-8a1a-a311b0c1666f</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Call Issuer</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>95ac4d57-ab03-4936-aea5-f776b48bea64</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Card Lost</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>69c9ee75-366b-491b-9db7-1dac2e2365f7</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Forceful Pin Change</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45511.29450409722</v>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45511.29450409365</v>
       </c>
     </row>
   </sheetData>
